--- a/optimizationModel/modelOutputs/testRun.xlsx
+++ b/optimizationModel/modelOutputs/testRun.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>windCapacity</t>
   </si>
@@ -35,6 +35,33 @@
   </si>
   <si>
     <t>hbCapacity</t>
+  </si>
+  <si>
+    <t>totalSystemCost</t>
+  </si>
+  <si>
+    <t>LCOA</t>
+  </si>
+  <si>
+    <t>windCosts</t>
+  </si>
+  <si>
+    <t>solarCosts</t>
+  </si>
+  <si>
+    <t>eyCosts</t>
+  </si>
+  <si>
+    <t>hsCosts</t>
+  </si>
+  <si>
+    <t>bsCosts</t>
+  </si>
+  <si>
+    <t>asuCosts</t>
+  </si>
+  <si>
+    <t>hbCosts</t>
   </si>
   <si>
     <t>windGen</t>
@@ -425,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,28 +477,82 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17195279.7957728</v>
+        <v>235.924530162913</v>
       </c>
       <c r="C2">
-        <v>3818825.84331255</v>
+        <v>62.0633556967088</v>
       </c>
       <c r="D2">
-        <v>497497.232496403</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9493.18977742982</v>
+        <v>3056.08545935849</v>
       </c>
       <c r="F2">
-        <v>6952.60101079217</v>
+        <v>7248.60074679434</v>
       </c>
       <c r="G2">
-        <v>8447.87486122986</v>
+        <v>8807.534321742831</v>
+      </c>
+      <c r="H2">
+        <v>569696364.9392635</v>
+      </c>
+      <c r="I2">
+        <v>0.4459462739250595</v>
+      </c>
+      <c r="J2">
+        <v>0.2948818086550276</v>
+      </c>
+      <c r="K2">
+        <v>0.06866349369983479</v>
+      </c>
+      <c r="L2">
+        <v>0.04321098686374329</v>
+      </c>
+      <c r="M2">
+        <v>7.336470479934256E-08</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.01009275760614879</v>
+      </c>
+      <c r="P2">
+        <v>0.02909715373560023</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,37 +570,37 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -527,16 +608,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6448229.923414799</v>
+        <v>28.00566855942314</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6563.32570690384</v>
+        <v>2548.89783757895</v>
       </c>
       <c r="E2">
-        <v>7974.87935225254</v>
+        <v>3097.08121212509</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -565,16 +646,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6632465.064083794</v>
+        <v>26.94384226333127</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6750.84429790055</v>
+        <v>2452.25075009438</v>
       </c>
       <c r="E3">
-        <v>8202.72697193263</v>
+        <v>2979.64854203449</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -603,28 +684,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6878111.918309119</v>
+        <v>29.46567971654947</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6952.60101079217</v>
+        <v>2681.79026691509</v>
       </c>
       <c r="E4">
-        <v>8447.87486122986</v>
+        <v>3258.55439479355</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>45535.7760669474</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.86773740074315E-13</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>45535.7760669474</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -641,28 +722,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6878111.918309119</v>
+        <v>33.3148000398825</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6952.60101079217</v>
+        <v>3032.11180264286</v>
       </c>
       <c r="E5">
-        <v>8447.87486122986</v>
+        <v>3684.21847222705</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>45535.7760669473</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.62800104634713E-13</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>91071.5521338947</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -679,16 +760,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6755288.491196456</v>
+        <v>36.6330072151696</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.154854606595314</v>
       </c>
       <c r="D6">
-        <v>6919.47187996232</v>
+        <v>3621.23506362391</v>
       </c>
       <c r="E6">
-        <v>8407.620753295651</v>
+        <v>4400.04260464631</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -697,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.14000523173564E-14</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>45535.7760669474</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.32600470856207E-14</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>44169.702784939</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -717,16 +798,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6632465.064083794</v>
+        <v>33.18207175287102</v>
       </c>
       <c r="C7">
-        <v>176797.4927459514</v>
+        <v>16.52956481058792</v>
       </c>
       <c r="D7">
-        <v>6952.60101079217</v>
+        <v>4524.44087653903</v>
       </c>
       <c r="E7">
-        <v>8447.87486122986</v>
+        <v>5497.49802738643</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -735,16 +816,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.07000261586782E-14</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>22767.8880334737</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3.66300235428104E-14</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>22084.8513924695</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -755,28 +836,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6509641.636971131</v>
+        <v>37.03119207620406</v>
       </c>
       <c r="C8">
-        <v>424313.9825902833</v>
+        <v>31.15429567921802</v>
       </c>
       <c r="D8">
-        <v>6952.60101079217</v>
+        <v>6205.81315748059</v>
       </c>
       <c r="E8">
-        <v>8447.87486122986</v>
+        <v>7540.47771261311</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>99138.2472982944</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2.33760009668454E-11</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>121906.135331768</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -793,28 +874,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6448229.923414799</v>
+        <v>40.61485582551413</v>
       </c>
       <c r="C9">
-        <v>707189.9709838055</v>
+        <v>43.93975908489377</v>
       </c>
       <c r="D9">
-        <v>6952.60101079217</v>
+        <v>7248.60074679434</v>
       </c>
       <c r="E9">
-        <v>8447.87486122986</v>
+        <v>8807.534321742831</v>
       </c>
       <c r="F9">
-        <v>106.023349328201</v>
+        <v>92.8358425078937</v>
       </c>
       <c r="G9">
-        <v>187795.548582318</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>106.023349328203</v>
+        <v>92.835842507894</v>
       </c>
       <c r="I9">
-        <v>309701.683914086</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -831,28 +912,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6448229.923414799</v>
+        <v>44.1985195748242</v>
       </c>
       <c r="C10">
-        <v>1060784.956475708</v>
+        <v>50.39167092137762</v>
       </c>
       <c r="D10">
-        <v>6952.60101079217</v>
+        <v>7248.60074679434</v>
       </c>
       <c r="E10">
-        <v>8447.87486122986</v>
+        <v>8807.534321742831</v>
       </c>
       <c r="F10">
-        <v>472.330683510128</v>
+        <v>282.433349234431</v>
       </c>
       <c r="G10">
-        <v>93897.7742911588</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>578.354032838331</v>
+        <v>375.269191742325</v>
       </c>
       <c r="I10">
-        <v>403599.458205245</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -869,28 +950,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6755288.491196456</v>
+        <v>48.71128133321466</v>
       </c>
       <c r="C11">
-        <v>1414379.941967611</v>
+        <v>53.72364017255373</v>
       </c>
       <c r="D11">
-        <v>6952.60101079217</v>
+        <v>7248.60074679434</v>
       </c>
       <c r="E11">
-        <v>8447.87486122986</v>
+        <v>8807.534321742831</v>
       </c>
       <c r="F11">
-        <v>1035.56934721378</v>
+        <v>430.441882301159</v>
       </c>
       <c r="G11">
-        <v>46948.8871455794</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1613.92338005203</v>
+        <v>805.711074043484</v>
       </c>
       <c r="I11">
-        <v>450548.345350824</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -907,28 +988,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6755288.491196456</v>
+        <v>50.43674906436394</v>
       </c>
       <c r="C12">
-        <v>2298367.405697368</v>
+        <v>48.70482423428847</v>
       </c>
       <c r="D12">
-        <v>6952.60101079217</v>
+        <v>7248.60074679434</v>
       </c>
       <c r="E12">
-        <v>8447.87486122986</v>
+        <v>8807.534321742831</v>
       </c>
       <c r="F12">
-        <v>1738.99508849378</v>
+        <v>367.783969118126</v>
       </c>
       <c r="G12">
-        <v>23474.4435727898</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3352.91846854581</v>
+        <v>1173.49504316161</v>
       </c>
       <c r="I12">
-        <v>474022.788923614</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -945,28 +1026,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6509641.636971131</v>
+        <v>48.71128133321466</v>
       </c>
       <c r="C13">
-        <v>2475164.898443319</v>
+        <v>39.36543278350915</v>
       </c>
       <c r="D13">
-        <v>6952.60101079217</v>
+        <v>7248.60074679434</v>
       </c>
       <c r="E13">
-        <v>8447.87486122986</v>
+        <v>8807.534321742831</v>
       </c>
       <c r="F13">
-        <v>1621.09922518528</v>
+        <v>158.299534021929</v>
       </c>
       <c r="G13">
-        <v>11737.2217863949</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4974.01769373109</v>
+        <v>1331.79457718354</v>
       </c>
       <c r="I13">
-        <v>485760.010710009</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -983,31 +1064,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6263994.782745805</v>
+        <v>44.33124786183568</v>
       </c>
       <c r="C14">
-        <v>2545883.8955417</v>
+        <v>27.15303743457797</v>
       </c>
       <c r="D14">
-        <v>6952.60101079217</v>
+        <v>7248.60074679434</v>
       </c>
       <c r="E14">
-        <v>8447.87486122986</v>
+        <v>8807.534321742831</v>
       </c>
       <c r="F14">
-        <v>1415.93718814209</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>5868.61089319744</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>6389.95488187319</v>
+        <v>1139.89925701371</v>
       </c>
       <c r="I14">
-        <v>491628.621603206</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>172.705788152843</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,31 +1102,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6386818.209858468</v>
+        <v>39.15484466838781</v>
       </c>
       <c r="C15">
-        <v>2333726.904246558</v>
+        <v>14.13170500703262</v>
       </c>
       <c r="D15">
-        <v>6952.60101079217</v>
+        <v>7068.09607476769</v>
       </c>
       <c r="E15">
-        <v>8447.87486122986</v>
+        <v>8588.20908234228</v>
       </c>
       <c r="F15">
-        <v>1286.96092580727</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2934.30544659872</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>7676.91580768046</v>
+        <v>569.949628506857</v>
       </c>
       <c r="I15">
-        <v>494562.927049805</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>512.954665656171</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1059,31 +1140,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6448229.923414799</v>
+        <v>40.48212753850265</v>
       </c>
       <c r="C16">
-        <v>2121569.912951417</v>
+        <v>2.437880901128849</v>
       </c>
       <c r="D16">
-        <v>6952.60101079217</v>
+        <v>5015.45421710493</v>
       </c>
       <c r="E16">
-        <v>8447.87486122986</v>
+        <v>6094.11204994523</v>
       </c>
       <c r="F16">
-        <v>1111.5935450833</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1467.15272329936</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>8788.50935276376</v>
+        <v>284.974814253428</v>
       </c>
       <c r="I16">
-        <v>496030.079773104</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>256.477332828086</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1097,31 +1178,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6263994.782745805</v>
+        <v>45.12761758390458</v>
       </c>
       <c r="C17">
-        <v>1732615.428910324</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>6952.60101079217</v>
+        <v>4661.80801805187</v>
       </c>
       <c r="E17">
-        <v>8447.87486122986</v>
+        <v>5664.40828438866</v>
       </c>
       <c r="F17">
-        <v>595.927912153199</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>733.5763616496751</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>9384.43726491696</v>
+        <v>142.487407126714</v>
       </c>
       <c r="I17">
-        <v>496763.656134754</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>128.238666414043</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1135,31 +1216,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6018347.92852048</v>
+        <v>48.04763989815724</v>
       </c>
       <c r="C18">
-        <v>1414379.941967611</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>6952.60101079217</v>
+        <v>4650.28380214309</v>
       </c>
       <c r="E18">
-        <v>8447.87486122986</v>
+        <v>5650.40559191141</v>
       </c>
       <c r="F18">
-        <v>108.752512512862</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>366.788180824838</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>9493.18977742982</v>
+        <v>71.2437035633571</v>
       </c>
       <c r="I18">
-        <v>497130.444315579</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>64.1193332070214</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1173,31 +1254,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5404230.792957166</v>
+        <v>51.10039049942137</v>
       </c>
       <c r="C19">
-        <v>1060784.956475708</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>6952.60101079217</v>
+        <v>4789.47085305664</v>
       </c>
       <c r="E19">
-        <v>8447.87486122986</v>
+        <v>5819.52716045764</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>183.394090412417</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>8649.2678173203</v>
+        <v>35.6218517816786</v>
       </c>
       <c r="I19">
-        <v>497313.838405991</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>759.529764098564</v>
+        <v>32.0596666035107</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1211,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4667290.230281188</v>
+        <v>50.70220563838691</v>
       </c>
       <c r="C20">
-        <v>707189.9709838055</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>6952.60101079227</v>
+        <v>4683.92508300844</v>
       </c>
       <c r="E20">
-        <v>8447.87486122997</v>
+        <v>5691.28199636505</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1229,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6987.85242794508</v>
+        <v>17.8109258908393</v>
       </c>
       <c r="I20">
-        <v>248656.919202995</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1495.27385043771</v>
+        <v>16.0298333017553</v>
       </c>
       <c r="K20">
-        <v>241197.211626906</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -1249,16 +1330,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4421643.376055863</v>
+        <v>47.5167267501113</v>
       </c>
       <c r="C21">
-        <v>353594.9854919027</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>6102.12136390913</v>
+        <v>4359.32287027698</v>
       </c>
       <c r="E21">
-        <v>7414.48525383856</v>
+        <v>5296.86861516036</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1267,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5529.67032802349</v>
+        <v>8.905462945419639</v>
       </c>
       <c r="I21">
-        <v>124328.459601498</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1312.36388992943</v>
+        <v>8.014916650877669</v>
       </c>
       <c r="K21">
-        <v>120598.605813453</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>20</v>
@@ -1287,16 +1368,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4790113.657393851</v>
+        <v>45.65853073195053</v>
       </c>
       <c r="C22">
-        <v>106078.4956475708</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>6283.94536370641</v>
+        <v>4172.87609630929</v>
       </c>
       <c r="E22">
-        <v>7635.41356464934</v>
+        <v>5070.32332479865</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1305,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4028.03899364245</v>
+        <v>4.45273147270982</v>
       </c>
       <c r="I22">
-        <v>62164.2298007489</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1351.46820094293</v>
+        <v>4.00745832543884</v>
       </c>
       <c r="K22">
-        <v>60299.3029067264</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>21</v>
@@ -1325,31 +1406,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5404230.792957166</v>
+        <v>49.64037934229506</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6952.60101079218</v>
+        <v>4526.62133253778</v>
       </c>
       <c r="E23">
-        <v>8447.87486122986</v>
+        <v>5500.1474271419</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25775.0287866857</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>2366.62360426724</v>
+        <v>2.22636573635491</v>
       </c>
       <c r="I23">
-        <v>87939.2585874346</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1495.27385043769</v>
+        <v>2.00372916271942</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1363,31 +1444,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5772701.074295154</v>
+        <v>56.54225026689222</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6952.60101079217</v>
+        <v>5150.44110150544</v>
       </c>
       <c r="E24">
-        <v>8447.87486122986</v>
+        <v>6258.13013548657</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2122.38525871204</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1183.31180213362</v>
+        <v>1.11318286817745</v>
       </c>
       <c r="I24">
-        <v>90061.6438461466</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1064.98062192026</v>
+        <v>1.00186458135971</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1401,16 +1482,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6141171.355633142</v>
+        <v>63.44412119148939</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6833.47319335861</v>
+        <v>5776.44865222439</v>
       </c>
       <c r="E25">
-        <v>8303.126601893809</v>
+        <v>7018.7711448656</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1419,19 +1500,6403 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>591.655901066811</v>
+        <v>0.556591434088727</v>
       </c>
       <c r="I25">
-        <v>45030.8219230733</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>532.49031096013</v>
+        <v>0.500932290679855</v>
       </c>
       <c r="K25">
-        <v>43679.8972653811</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>71.14236183815548</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>6476.00856898374</v>
+      </c>
+      <c r="E26">
+        <v>7868.78319439094</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.278295717044364</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.250466145339927</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>79.63697220689046</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E27">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.139147858522194</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.125233072669953</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>85.60974512240723</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E28">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F28">
+        <v>112.777997916538</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>112.91714577506</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>91.58251803792402</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E29">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F29">
+        <v>225.566476310665</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>338.483622085724</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>94.36981206516519</v>
+      </c>
+      <c r="C30">
+        <v>3.589126090903981</v>
+      </c>
+      <c r="D30">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E30">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F30">
+        <v>345.873770957902</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>684.357393043627</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>74.32784072643109</v>
+      </c>
+      <c r="C31">
+        <v>18.11933904824337</v>
+      </c>
+      <c r="D31">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E31">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F31">
+        <v>241.366947405866</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>925.724340449493</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>39.81848610344523</v>
+      </c>
+      <c r="C32">
+        <v>34.88136682984358</v>
+      </c>
+      <c r="D32">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E32">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>809.320385748087</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>104.763559231265</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>27.74021198540017</v>
+      </c>
+      <c r="C33">
+        <v>48.05426852053981</v>
+      </c>
+      <c r="D33">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E33">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>718.593308854608</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>81.6543692041311</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>31.98751716976767</v>
+      </c>
+      <c r="C34">
+        <v>56.43570816769707</v>
+      </c>
+      <c r="D34">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E34">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F34">
+        <v>165.279307948541</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>883.872616803149</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>40.74758411252562</v>
+      </c>
+      <c r="C35">
+        <v>58.92042226811412</v>
+      </c>
+      <c r="D35">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E35">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F35">
+        <v>377.659353655497</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1261.53197045865</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>51.76403193447879</v>
+      </c>
+      <c r="C36">
+        <v>55.88392792881076</v>
+      </c>
+      <c r="D36">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E36">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F36">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1750.40068912156</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>62.24956660838604</v>
+      </c>
+      <c r="C37">
+        <v>46.04384700200498</v>
+      </c>
+      <c r="D37">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E37">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F37">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>2239.26940778447</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>70.61144869010953</v>
+      </c>
+      <c r="C38">
+        <v>34.02559655194121</v>
+      </c>
+      <c r="D38">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E38">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F38">
+        <v>470.303137457566</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>2709.57254524203</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>76.31876503160335</v>
+      </c>
+      <c r="C39">
+        <v>17.81960657279896</v>
+      </c>
+      <c r="D39">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E39">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F39">
+        <v>271.419916302832</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>2980.99246154486</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>80.96425507700529</v>
+      </c>
+      <c r="C40">
+        <v>2.800625317433735</v>
+      </c>
+      <c r="D40">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E40">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F40">
+        <v>75.0929978136257</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>3056.08545935849</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>75.38966702252296</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E41">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2953.29257082996</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>92.5135996756735</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>60.25864230321378</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E42">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>2497.61811768478</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>410.107007830666</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>46.05671559298499</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E43">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1711.14863143343</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>707.82253762622</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>33.84571318792844</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>6410.40520725536</v>
+      </c>
+      <c r="E44">
+        <v>7789.07072570517</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>855.574315716713</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>770.016884145042</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>29.59840800356095</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>4358.84803115117</v>
+      </c>
+      <c r="E45">
+        <v>5296.29165388964</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>427.787157858357</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>385.008442072521</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>32.91661517884805</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>3828.3616100537</v>
+      </c>
+      <c r="E46">
+        <v>4651.71520055128</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>213.893578929178</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>192.504221036261</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>37.03119207620406</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>3786.59197493167</v>
+      </c>
+      <c r="E47">
+        <v>4600.96230246862</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>106.946789464589</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>96.25211051813029</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>40.34939925149116</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>3880.47691578102</v>
+      </c>
+      <c r="E48">
+        <v>4715.03877980682</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>53.4733947322946</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>48.1260552590651</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>43.53487813976678</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>4066.33481221799</v>
+      </c>
+      <c r="E49">
+        <v>4940.86854461482</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>26.7366973661473</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>24.0630276295326</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>44.46397614884717</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>4098.86201480349</v>
+      </c>
+      <c r="E50">
+        <v>4980.39126950607</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>13.3683486830736</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>12.0315138147663</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>46.58762874103091</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>4266.11924399926</v>
+      </c>
+      <c r="E51">
+        <v>5183.61998055803</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>6.68417434153682</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>6.01575690738314</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>44.99488929689311</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>4108.15161224464</v>
+      </c>
+      <c r="E52">
+        <v>4991.67875120856</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>3.34208717076841</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3.00787845369157</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>43.26942156574381</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>3944.62038313239</v>
+      </c>
+      <c r="E53">
+        <v>4792.97737926172</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1.67104358538421</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.50393922684578</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>43.93306300080123</v>
+      </c>
+      <c r="C54">
+        <v>3.980821939496112</v>
+      </c>
+      <c r="D54">
+        <v>4364.07795741845</v>
+      </c>
+      <c r="E54">
+        <v>5302.64636381343</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.835521792692107</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.751969613422893</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>30.66023429965282</v>
+      </c>
+      <c r="C55">
+        <v>20.23619965606954</v>
+      </c>
+      <c r="D55">
+        <v>4633.90098449934</v>
+      </c>
+      <c r="E55">
+        <v>5630.49937363225</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.417760896346056</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.375984806711446</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>9.42370837781537</v>
+      </c>
+      <c r="C56">
+        <v>37.27071150625557</v>
+      </c>
+      <c r="D56">
+        <v>4250.65022244226</v>
+      </c>
+      <c r="E56">
+        <v>5164.82408559205</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.208880448173028</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.187992403355725</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>17.91831874655036</v>
+      </c>
+      <c r="C57">
+        <v>51.64850368772976</v>
+      </c>
+      <c r="D57">
+        <v>6331.93092281743</v>
+      </c>
+      <c r="E57">
+        <v>7693.7192257806</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.104440224086514</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.0939962016778625</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>30.7929625866643</v>
+      </c>
+      <c r="C58">
+        <v>59.56757193100545</v>
+      </c>
+      <c r="D58">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E58">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F58">
+        <v>202.573393278865</v>
+      </c>
+      <c r="G58">
+        <v>3.40136032381199E-16</v>
+      </c>
+      <c r="H58">
+        <v>202.677833502951</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>41.27849726057155</v>
+      </c>
+      <c r="C59">
+        <v>62.0633556967088</v>
+      </c>
+      <c r="D59">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E59">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F59">
+        <v>447.746480401946</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>650.424313904897</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>51.10039049942137</v>
+      </c>
+      <c r="C60">
+        <v>58.0970094733563</v>
+      </c>
+      <c r="D60">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E60">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F60">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1139.29303256781</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>60.65682716424823</v>
+      </c>
+      <c r="C61">
+        <v>49.2489408587458</v>
+      </c>
+      <c r="D61">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E61">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F61">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1628.16175123072</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>69.01870924597173</v>
+      </c>
+      <c r="C62">
+        <v>35.00909373699319</v>
+      </c>
+      <c r="D62">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E62">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F62">
+        <v>459.364720384756</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>2087.52647161547</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>75.65512359654593</v>
+      </c>
+      <c r="C63">
+        <v>18.06909979809786</v>
+      </c>
+      <c r="D63">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E63">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F63">
+        <v>264.17964331078</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>2351.70611492625</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>78.70787419781007</v>
+      </c>
+      <c r="C64">
+        <v>2.963264245870902</v>
+      </c>
+      <c r="D64">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E64">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F64">
+        <v>36.1139812964996</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>2387.82009622275</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>71.67327498620142</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E65">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>2199.10161866711</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>169.846629800082</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>60.52409887723674</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E66">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1750.4989588968</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>403.742393793276</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>55.34769568378886</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E67">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1181.65549081656</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>511.959121272212</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>53.35677137861659</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>7155.74922438414</v>
+      </c>
+      <c r="E68">
+        <v>8694.713516870161</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>590.827745408282</v>
+      </c>
+      <c r="I68">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J68">
+        <v>531.744970867454</v>
+      </c>
+      <c r="K68">
+        <v>3.16449207371037E-15</v>
+      </c>
+      <c r="L68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>49.2421944812606</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>5631.49101899586</v>
+      </c>
+      <c r="E69">
+        <v>6842.6379331663</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>295.413872704141</v>
+      </c>
+      <c r="I69">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J69">
+        <v>265.872485433727</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>43.4021498527553</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>4525.07411342957</v>
+      </c>
+      <c r="E70">
+        <v>5498.26745252682</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>147.706936352071</v>
+      </c>
+      <c r="I70">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J70">
+        <v>132.936242716864</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>38.75665980735335</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>3814.8382998878</v>
+      </c>
+      <c r="E71">
+        <v>4635.28347495479</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>73.85346817603531</v>
+      </c>
+      <c r="I71">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J71">
+        <v>66.4681213584318</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>41.01304068654858</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>3876.47740733329</v>
+      </c>
+      <c r="E72">
+        <v>4710.17910976098</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>36.9267340880176</v>
+      </c>
+      <c r="I72">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J72">
+        <v>33.2340606792159</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>46.45490045401942</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>4299.897571491</v>
+      </c>
+      <c r="E73">
+        <v>5224.66290582139</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>18.4633670440088</v>
+      </c>
+      <c r="I73">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J73">
+        <v>16.6170303396079</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>50.96766221240989</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>4674.69021954304</v>
+      </c>
+      <c r="E74">
+        <v>5680.0610201009</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>9.23168352200441</v>
+      </c>
+      <c r="I74">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J74">
+        <v>8.30851516980397</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>56.40952197988074</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>5152.00633366384</v>
+      </c>
+      <c r="E75">
+        <v>6260.03199716141</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>4.61584176100221</v>
+      </c>
+      <c r="I75">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J75">
+        <v>4.15425758490198</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>60.9222837382712</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>5553.74695669741</v>
+      </c>
+      <c r="E76">
+        <v>6748.17370194097</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>2.3079208805011</v>
+      </c>
+      <c r="I76">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J76">
+        <v>2.07712879245099</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>62.78047975643198</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>5718.37192636263</v>
+      </c>
+      <c r="E77">
+        <v>6948.20404175289</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1.15396044025055</v>
+      </c>
+      <c r="I77">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J77">
+        <v>1.03856439622549</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>61.05501202528268</v>
+      </c>
+      <c r="C78">
+        <v>4.070230774500837</v>
+      </c>
+      <c r="D78">
+        <v>5929.5248445425</v>
+      </c>
+      <c r="E78">
+        <v>7204.7689484113</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0.5769802201252781</v>
+      </c>
+      <c r="I78">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J78">
+        <v>0.519282198112748</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>32.12024545677914</v>
+      </c>
+      <c r="C79">
+        <v>20.45333539822387</v>
+      </c>
+      <c r="D79">
+        <v>4786.03330773364</v>
+      </c>
+      <c r="E79">
+        <v>5815.35031316359</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0.28849011006264</v>
+      </c>
+      <c r="I79">
+        <v>-1.31111606893949E-14</v>
+      </c>
+      <c r="J79">
+        <v>0.259641099056374</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>5.441859767470847</v>
+      </c>
+      <c r="C80">
+        <v>37.31328714197211</v>
+      </c>
+      <c r="D80">
+        <v>3891.86313058065</v>
+      </c>
+      <c r="E80">
+        <v>4728.87379171403</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0.14424505503132</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.129820549528188</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>24.15654823609011</v>
+      </c>
+      <c r="C81">
+        <v>51.02519638083968</v>
+      </c>
+      <c r="D81">
+        <v>6842.84822127538</v>
+      </c>
+      <c r="E81">
+        <v>8314.51788733339</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.07212252751566001</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.064910274764094</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>38.49120323333039</v>
+      </c>
+      <c r="C82">
+        <v>59.46879645614309</v>
+      </c>
+      <c r="D82">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E82">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F82">
+        <v>346.211513985108</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>346.283636512624</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>49.2421944812606</v>
+      </c>
+      <c r="C83">
+        <v>59.83920448687695</v>
+      </c>
+      <c r="D83">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E83">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F83">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>835.152355175533</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>55.0822391097659</v>
+      </c>
+      <c r="C84">
+        <v>56.33267512926305</v>
+      </c>
+      <c r="D84">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E84">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F84">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1324.02107383844</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>57.07316341493815</v>
+      </c>
+      <c r="C85">
+        <v>46.75996919475711</v>
+      </c>
+      <c r="D85">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E85">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F85">
+        <v>455.972517934126</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1779.99359177257</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>59.06408772011041</v>
+      </c>
+      <c r="C86">
+        <v>33.46615269862593</v>
+      </c>
+      <c r="D86">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E86">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F86">
+        <v>241.904672999275</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>2021.89826477184</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>62.11683832137455</v>
+      </c>
+      <c r="C87">
+        <v>17.69273117836368</v>
+      </c>
+      <c r="D87">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E87">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F87">
+        <v>1.23686204515</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>2023.13512681699</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>70.0805355420636</v>
+      </c>
+      <c r="C88">
+        <v>2.862785745579878</v>
+      </c>
+      <c r="D88">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E88">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1864.47234073045</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>142.796507477888</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>70.34599211608656</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E89">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1645.40412611421</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>197.16139315462</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>56.01133711884628</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E90">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>1092.16610795774</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>497.91421634082</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>43.00396499172085</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>6039.34836719483</v>
+      </c>
+      <c r="E91">
+        <v>7338.21186779444</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>546.083053978871</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>491.474748580983</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>35.30572434505476</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>4276.0004314611</v>
+      </c>
+      <c r="E92">
+        <v>5195.62628367084</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>273.041526989435</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>245.737374290492</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>31.19114744769876</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>3370.17005981282</v>
+      </c>
+      <c r="E93">
+        <v>4094.98184667415</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>136.520763494718</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>122.868687145246</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>31.45660402172173</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>3128.65024752469</v>
+      </c>
+      <c r="E94">
+        <v>3801.51913429488</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>68.26038174735881</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>61.4343435726229</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>37.29664865022703</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>3527.33891211665</v>
+      </c>
+      <c r="E95">
+        <v>4285.95250560954</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>34.1301908736794</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>30.7171717863115</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>45.79125901896201</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>4234.05361325796</v>
+      </c>
+      <c r="E96">
+        <v>5144.65809630371</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>17.0650954368397</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>15.3585858931557</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>55.21496739677738</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>5058.53599082236</v>
+      </c>
+      <c r="E97">
+        <v>6146.45928410979</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>8.532547718419851</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>7.67929294657787</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>64.24049091355829</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>5863.37779003953</v>
+      </c>
+      <c r="E98">
+        <v>7124.39585667014</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>4.26627385920993</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>3.83964647328893</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>71.00963355114398</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>6471.16033032849</v>
+      </c>
+      <c r="E99">
+        <v>7862.89226042344</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>2.13313692960496</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.91982323664447</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>74.59329730045405</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>6793.15279903984</v>
+      </c>
+      <c r="E100">
+        <v>8254.13462823796</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1.06656846480248</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.959911618322233</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>75.52239530953445</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>6875.65682537512</v>
+      </c>
+      <c r="E101">
+        <v>8354.38253387013</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0.533284232401241</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.479955809161117</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>74.59329730045405</v>
+      </c>
+      <c r="C102">
+        <v>3.754319557484141</v>
+      </c>
+      <c r="D102">
+        <v>7131.73537552942</v>
+      </c>
+      <c r="E102">
+        <v>8665.535085697949</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0.26664211620062</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0.239977904580558</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>46.05671559298499</v>
+      </c>
+      <c r="C103">
+        <v>19.37787484002417</v>
+      </c>
+      <c r="D103">
+        <v>5955.95972491893</v>
+      </c>
+      <c r="E103">
+        <v>7236.8890946767</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0.133321058100311</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0.119988952290279</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>19.24560161666519</v>
+      </c>
+      <c r="C104">
+        <v>35.96534251518658</v>
+      </c>
+      <c r="D104">
+        <v>5025.20516011264</v>
+      </c>
+      <c r="E104">
+        <v>6105.96009734221</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0.0666605290501557</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0.0599944761451394</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>30.12932115160689</v>
+      </c>
+      <c r="C105">
+        <v>49.51376131290266</v>
+      </c>
+      <c r="D105">
+        <v>7248.60074679435</v>
+      </c>
+      <c r="E105">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0.0666605290501671</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>43.93306300080123</v>
+      </c>
+      <c r="C106">
+        <v>58.05613686306843</v>
+      </c>
+      <c r="D106">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E106">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F106">
+        <v>422.371770562713</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>422.438431091763</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>56.94043512792667</v>
+      </c>
+      <c r="C107">
+        <v>60.62515072220422</v>
+      </c>
+      <c r="D107">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E107">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F107">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>911.307149754673</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>62.78047975643198</v>
+      </c>
+      <c r="C108">
+        <v>57.31276626345772</v>
+      </c>
+      <c r="D108">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E108">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F108">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1400.17586841758</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>63.44412119148939</v>
+      </c>
+      <c r="C109">
+        <v>48.85979954829666</v>
+      </c>
+      <c r="D109">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E109">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F109">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1889.04458708049</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>62.78047975643198</v>
+      </c>
+      <c r="C110">
+        <v>34.85922749927098</v>
+      </c>
+      <c r="D110">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E110">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F110">
+        <v>338.3746464997</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>2227.41923358019</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>61.85138174735159</v>
+      </c>
+      <c r="C111">
+        <v>18.22407511210605</v>
+      </c>
+      <c r="D111">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E111">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F111">
+        <v>6.06981264875726</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>2233.48904622895</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>63.04593633045494</v>
+      </c>
+      <c r="C112">
+        <v>3.044157953732321</v>
+      </c>
+      <c r="D112">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E112">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1914.69780037807</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>286.912121265787</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>63.57684947850087</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E113">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1537.64914318855</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>339.343791470569</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>59.06408772011041</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E114">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1055.7590697934</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>433.70106605564</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>56.54225026689222</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>7200.66829885205</v>
+      </c>
+      <c r="E115">
+        <v>8749.293194230921</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>527.8795348966991</v>
+      </c>
+      <c r="I115">
+        <v>-4.37038689646497E-14</v>
+      </c>
+      <c r="J115">
+        <v>475.091581407029</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>54.02041281367402</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>5943.87034632459</v>
+      </c>
+      <c r="E116">
+        <v>7222.19969176743</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>263.93976744835</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>237.545790703515</v>
+      </c>
+      <c r="K116">
+        <v>-4.23927528957102E-14</v>
+      </c>
+      <c r="L116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>49.37492276827208</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>5007.43964521976</v>
+      </c>
+      <c r="E117">
+        <v>6084.37380950153</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>131.969883724175</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>118.772895351757</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>42.60578013068639</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>4134.53474616221</v>
+      </c>
+      <c r="E118">
+        <v>5023.73602206829</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>65.9849418620874</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>59.3864476758786</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>37.42937693723851</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>3534.99973066025</v>
+      </c>
+      <c r="E119">
+        <v>4295.26091210237</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>32.9924709310437</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>29.6932238379393</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>39.81848610344523</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>3688.22384279777</v>
+      </c>
+      <c r="E120">
+        <v>4481.43844811394</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>16.4962354655218</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>14.8466119189697</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>47.11854188907684</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>4320.5405476336</v>
+      </c>
+      <c r="E121">
+        <v>5249.7455013774</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>8.248117732760919</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>7.42330595948483</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>55.34769568378886</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>5053.44517808844</v>
+      </c>
+      <c r="E122">
+        <v>6140.2736064258</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>4.12405886638046</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>3.71165297974242</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>63.57684947850087</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>5794.39690518395</v>
+      </c>
+      <c r="E123">
+        <v>7040.57947166945</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>2.06202943319023</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1.85582648987121</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>70.74417697712103</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>6442.69288457687</v>
+      </c>
+      <c r="E124">
+        <v>7828.30241139352</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1.03101471659512</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0.927913244935604</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>75.12421044849999</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>6839.34229415594</v>
+      </c>
+      <c r="E125">
+        <v>8310.2579515868</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0.515507358297558</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0.463956622467802</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>72.86782956930476</v>
+      </c>
+      <c r="C126">
+        <v>3.860758646775481</v>
+      </c>
+      <c r="D126">
+        <v>6984.36079342467</v>
+      </c>
+      <c r="E126">
+        <v>8486.465119592551</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0.257753679148779</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0.231978311233901</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>40.74758411252562</v>
+      </c>
+      <c r="C127">
+        <v>19.6861224426119</v>
+      </c>
+      <c r="D127">
+        <v>5500.78512920019</v>
+      </c>
+      <c r="E127">
+        <v>6683.82154216305</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0.128876839574389</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0.115989155616951</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>16.85649245045848</v>
+      </c>
+      <c r="C128">
+        <v>36.37917769435132</v>
+      </c>
+      <c r="D128">
+        <v>4845.43236447617</v>
+      </c>
+      <c r="E128">
+        <v>5887.52413666606</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0.0644384197871944</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0.0579945778084753</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>26.6783856893083</v>
+      </c>
+      <c r="C129">
+        <v>50.02552045421542</v>
+      </c>
+      <c r="D129">
+        <v>6981.22872926817</v>
+      </c>
+      <c r="E129">
+        <v>8482.65945233071</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0.0322192098935972</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0.0289972889042375</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>37.82756179827297</v>
+      </c>
+      <c r="C130">
+        <v>58.33117546979725</v>
+      </c>
+      <c r="D130">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E130">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F130">
+        <v>312.169696440251</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>312.201915650145</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>48.57855304620318</v>
+      </c>
+      <c r="C131">
+        <v>58.56023238995222</v>
+      </c>
+      <c r="D131">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E131">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F131">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>801.0706343130551</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>57.33861998896113</v>
+      </c>
+      <c r="C132">
+        <v>53.36941088339215</v>
+      </c>
+      <c r="D132">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E132">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F132">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1289.93935297596</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>60.9222837382712</v>
+      </c>
+      <c r="C133">
+        <v>45.63937846269788</v>
+      </c>
+      <c r="D133">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E133">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F133">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>1778.80807163887</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>60.65682716424823</v>
+      </c>
+      <c r="C134">
+        <v>32.00665990626307</v>
+      </c>
+      <c r="D134">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E134">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F134">
+        <v>244.423105015726</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>2023.2311766546</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>62.38229489539752</v>
+      </c>
+      <c r="C135">
+        <v>16.84973359117627</v>
+      </c>
+      <c r="D135">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E135">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>2011.28126398557</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>10.7549214021235</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>67.42596980183392</v>
+      </c>
+      <c r="C136">
+        <v>2.80573439371972</v>
+      </c>
+      <c r="D136">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E136">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>1789.37573937998</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>199.714972145031</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>67.29324151482244</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E137">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>1499.17287322152</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>261.182579542618</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>60.1259140162023</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E138">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1042.09585228383</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>411.369318843923</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>52.29494508252473</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>6787.53359077133</v>
+      </c>
+      <c r="E139">
+        <v>8247.306914667481</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>521.047926141914</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>468.943133527722</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>42.20759526965194</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>4855.45468392973</v>
+      </c>
+      <c r="E140">
+        <v>5899.70192458048</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>260.523963070957</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>234.471566763861</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>33.58025661390548</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>3563.26083474203</v>
+      </c>
+      <c r="E141">
+        <v>4329.60004221389</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>130.261981535478</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>117.235783381931</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>31.58933230873321</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>3128.55928368419</v>
+      </c>
+      <c r="E142">
+        <v>3801.40860714968</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>65.13099076773921</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>58.6178916909653</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>34.90753948402032</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>3303.81985476969</v>
+      </c>
+      <c r="E143">
+        <v>4014.36191345041</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>32.5654953838696</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>29.3089458454826</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>39.42030124241078</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>3651.16905759073</v>
+      </c>
+      <c r="E144">
+        <v>4436.41440776516</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>16.2827476919348</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>14.6544729227413</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>43.4021498527553</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>3981.87101975989</v>
+      </c>
+      <c r="E145">
+        <v>4838.23939217483</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>8.141373845967401</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>7.32723646137066</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>48.84400962022615</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>4461.30893090012</v>
+      </c>
+      <c r="E146">
+        <v>5420.78849441083</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>4.0706869229837</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>3.66361823068533</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>53.35677137861659</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>4864.11045244341</v>
+      </c>
+      <c r="E147">
+        <v>5910.21926177814</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>2.03534346149185</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1.83180911534266</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>56.01133711884628</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>5101.75655506663</v>
+      </c>
+      <c r="E148">
+        <v>6198.97515803965</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1.01767173074592</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0.9159045576713321</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>56.80770684091519</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>5172.26679881542</v>
+      </c>
+      <c r="E149">
+        <v>6284.64981630063</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0.508835865372962</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0.457952278835666</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>53.62222795263958</v>
+      </c>
+      <c r="C150">
+        <v>3.373693374178309</v>
+      </c>
+      <c r="D150">
+        <v>5188.40980755622</v>
+      </c>
+      <c r="E150">
+        <v>6304.26465073659</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0.254417932686481</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0.228976139417833</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>34.11116976195141</v>
+      </c>
+      <c r="C151">
+        <v>18.70092223213125</v>
+      </c>
+      <c r="D151">
+        <v>4807.11655203105</v>
+      </c>
+      <c r="E151">
+        <v>5840.96786395024</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0.127208966343241</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0.114488069708917</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7.963697220689046</v>
+      </c>
+      <c r="C152">
+        <v>33.94299981865112</v>
+      </c>
+      <c r="D152">
+        <v>3814.32496885904</v>
+      </c>
+      <c r="E152">
+        <v>4634.65974344962</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0.0636044831716203</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0.0572440348544583</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>13.67101356218286</v>
+      </c>
+      <c r="C153">
+        <v>47.48545802736688</v>
+      </c>
+      <c r="D153">
+        <v>5566.21070922717</v>
+      </c>
+      <c r="E153">
+        <v>6763.31799420069</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0.0318022415858101</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0.0286220174272291</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>29.9965928645954</v>
+      </c>
+      <c r="C154">
+        <v>56.01165483596037</v>
+      </c>
+      <c r="D154">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E154">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F154">
+        <v>120.312273910605</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>120.344076152191</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>48.04763989815724</v>
+      </c>
+      <c r="C155">
+        <v>57.95565836277741</v>
+      </c>
+      <c r="D155">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E155">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F155">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>609.2127948151</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>59.72772915516784</v>
+      </c>
+      <c r="C156">
+        <v>54.67137382360382</v>
+      </c>
+      <c r="D156">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E156">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F156">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>1098.08151347801</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>67.02778494079945</v>
+      </c>
+      <c r="C157">
+        <v>46.68844212675332</v>
+      </c>
+      <c r="D157">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E157">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F157">
+        <v>488.86871866291</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1586.95023214092</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>69.28416581999468</v>
+      </c>
+      <c r="C158">
+        <v>32.81219093401993</v>
+      </c>
+      <c r="D158">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E158">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F158">
+        <v>422.89708689417</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>2009.84731903509</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>68.62052438493727</v>
+      </c>
+      <c r="C159">
+        <v>17.30529289334321</v>
+      </c>
+      <c r="D159">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E159">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F159">
+        <v>116.854325578964</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>2126.70164461405</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>69.01870924597173</v>
+      </c>
+      <c r="C160">
+        <v>2.973482398442872</v>
+      </c>
+      <c r="D160">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E160">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1945.73151485566</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>162.873116782551</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>68.75325267194874</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E161">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>1689.4107529482</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>230.688685716717</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>61.98411003436307</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E162">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>1275.46712934736</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>372.54926124076</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>54.94951082275441</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E163">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>697.886961726539</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>519.822150858735</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>49.50765105528356</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>5863.9899983585</v>
+      </c>
+      <c r="E164">
+        <v>7125.13973069077</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>348.943480863269</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>314.049132776943</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>45.12761758390458</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>4786.29423433775</v>
+      </c>
+      <c r="E165">
+        <v>5815.66735642496</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>174.471740431635</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>157.024566388471</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>44.1985195748242</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>4362.20537455826</v>
+      </c>
+      <c r="E166">
+        <v>5300.37105049607</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>87.2358702158174</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>78.51228319423559</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>49.50765105528356</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>4675.63251208072</v>
+      </c>
+      <c r="E167">
+        <v>5681.20596850634</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>43.6179351079087</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>39.2561415971178</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>58.00226142401854</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>5363.88358964814</v>
+      </c>
+      <c r="E168">
+        <v>6517.47702265873</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>21.8089675539543</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>19.6280707985589</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>63.84230605252384</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>5852.96902347924</v>
+      </c>
+      <c r="E169">
+        <v>7111.7485096953</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>10.9044837769772</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>9.814035399279449</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>68.08961123689134</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>6218.31523166077</v>
+      </c>
+      <c r="E170">
+        <v>7555.66856823908</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>5.45224188848859</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>4.90701769963973</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>70.47872040309804</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>6425.13400335348</v>
+      </c>
+      <c r="E171">
+        <v>7806.96719727033</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>2.72612094424429</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>2.45350884981986</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>73.3987427173507</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>6685.5922223174</v>
+      </c>
+      <c r="E172">
+        <v>8123.4413393893</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>1.36306047212215</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1.22675442490993</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>80.96425507700529</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E173">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F173">
+        <v>24.9740312858974</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>26.3370917580198</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>87.20248456654505</v>
+      </c>
+      <c r="C174">
+        <v>3.760280146484456</v>
+      </c>
+      <c r="D174">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E174">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F174">
+        <v>213.931813457498</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>240.268905215518</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>70.0805355420636</v>
+      </c>
+      <c r="C175">
+        <v>19.58138637874922</v>
+      </c>
+      <c r="D175">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E175">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F175">
+        <v>189.140666748404</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>429.409571963922</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>34.2438980489629</v>
+      </c>
+      <c r="C176">
+        <v>36.32297785520549</v>
+      </c>
+      <c r="D176">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E176">
+        <v>8807.53432174282</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>217.167360964282</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>191.017989899676</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>7.83096893367756</v>
+      </c>
+      <c r="C177">
+        <v>50.25287434894172</v>
+      </c>
+      <c r="D177">
+        <v>5709.05038366684</v>
+      </c>
+      <c r="E177">
+        <v>6936.87774443116</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>108.583680482141</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>97.7253124339268</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>15.13102471930918</v>
+      </c>
+      <c r="C178">
+        <v>58.6649684538149</v>
+      </c>
+      <c r="D178">
+        <v>6927.75202183768</v>
+      </c>
+      <c r="E178">
+        <v>8417.681679025131</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>54.2918402410705</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>48.8626562169634</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>26.28020082827385</v>
+      </c>
+      <c r="C179">
+        <v>60.98108303679444</v>
+      </c>
+      <c r="D179">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E179">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F179">
+        <v>143.942202686038</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>198.234042927109</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>35.17299605804328</v>
+      </c>
+      <c r="C180">
+        <v>57.65677740004732</v>
+      </c>
+      <c r="D180">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E180">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F180">
+        <v>249.060195540946</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>447.294238468054</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>46.32217216700795</v>
+      </c>
+      <c r="C181">
+        <v>48.44085529284595</v>
+      </c>
+      <c r="D181">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E181">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F181">
+        <v>285.364140185907</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>732.658378653961</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>53.35677137861659</v>
+      </c>
+      <c r="C182">
+        <v>34.27594128995444</v>
+      </c>
+      <c r="D182">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E182">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F182">
+        <v>150.321150986858</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>882.979529640819</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>60.65682716424823</v>
+      </c>
+      <c r="C183">
+        <v>18.33306873954038</v>
+      </c>
+      <c r="D183">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E183">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>866.715328206103</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>14.6377812912442</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>84.14973396528092</v>
+      </c>
+      <c r="C184">
+        <v>3.079921487734211</v>
+      </c>
+      <c r="D184">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E184">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F184">
+        <v>142.578859020061</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>1009.29418722616</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>90.52069174183215</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E185">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F185">
+        <v>204.648220974177</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>1213.94240820034</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>74.19511243941959</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E186">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>1085.43140387608</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>115.659903891837</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>48.97673790723763</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>6569.85800778955</v>
+      </c>
+      <c r="E187">
+        <v>7982.81653437369</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>542.715701938039</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>488.444131744235</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>36.50027892815812</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>4378.18342196474</v>
+      </c>
+      <c r="E188">
+        <v>5319.78544588668</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>271.357850969019</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>244.222065872117</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>46.58762874103091</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>4768.17968519836</v>
+      </c>
+      <c r="E189">
+        <v>5793.65696864928</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>135.67892548451</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>122.111032936059</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>60.78955545125971</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>5796.71331760684</v>
+      </c>
+      <c r="E190">
+        <v>7043.39406756603</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>67.8394627422549</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>61.0555164680294</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>73.66419929137366</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>6836.46243740274</v>
+      </c>
+      <c r="E191">
+        <v>8306.75873317466</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>33.9197313711274</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>30.5277582340147</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>82.15880966010864</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E192">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F192">
+        <v>47.520491643821</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>81.4402230149485</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>91.18433317688957</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>7248.60074679434</v>
+      </c>
+      <c r="E193">
+        <v>8807.534321742831</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>40.7201115074742</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>36.6481003567268</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1441</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +7932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1411.5536453487</v>
+        <v>548.183374546141</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1491,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1451.88267403208</v>
+        <v>527.397791940105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1499,7 +7964,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1495.27385043769</v>
+        <v>576.764127878458</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1507,7 +7972,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1495.27385043769</v>
+        <v>652.106669584188</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1515,7 +7980,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1488.14887333333</v>
+        <v>778.807541022397</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1523,7 +7988,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1495.27385043768</v>
+        <v>973.057150847397</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1531,7 +7996,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1495.27385043772</v>
+        <v>1334.66455513252</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1539,7 +8004,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1613.07757191346</v>
+        <v>1662.08451106836</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1547,7 +8012,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2020.08572100449</v>
+        <v>1872.74840743118</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1555,7 +8020,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2645.906458453</v>
+        <v>2037.20233306088</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1563,7 +8028,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3427.49061543077</v>
+        <v>1967.58242952418</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1571,7 +8036,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3296.49521175467</v>
+        <v>1734.82194608396</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1579,7 +8044,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3068.53739281779</v>
+        <v>1386.22778679564</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1587,7 +8052,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2925.2304346683</v>
+        <v>1007.15834191841</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1595,7 +8060,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2730.37778941913</v>
+        <v>822.180500012221</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1603,7 +8068,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2157.41597505235</v>
+        <v>874.36159992275</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1611,7 +8076,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1616.10997545198</v>
+        <v>936.002456561298</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1619,7 +8084,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>735.7440863391211</v>
+        <v>997.996640797491</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1627,7 +8092,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>991.327080054859</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1635,7 +8100,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>929.530828232506</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1643,7 +8108,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>893.439770163922</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1651,7 +8116,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-2.89765011984855E-12</v>
+        <v>971.522365441396</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1659,7 +8124,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>430.293228517425</v>
+        <v>1106.68716939976</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1667,7 +8132,1351 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>937.163097575075</v>
+        <v>1241.82156035053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1392.52415926186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1558.80834187581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1684.24246152241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1809.56299307144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1943.2377649017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1827.11907206611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1454.17001571721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1477.27920574435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1742.57725044686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1978.55507901014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2081.492616568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1860.5112597294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1642.37023918584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1466.41997527281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1148.82656711781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>851.11103732226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>608.6486343047731</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>552.4351806659459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>630.849369461316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>718.118217018815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>786.435808766742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>850.47070476729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>869.497740887807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>911.484979651388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>880.519260510223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>846.853056902478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>937.816436781554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>996.2224043261961</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>913.985870746438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1361.69430676149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1784.01512303611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2056.42966428398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>2069.33881982043</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1852.46651196046</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1599.06022083348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1389.0869451484</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1155.1911811552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1046.97445367627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1007.21932161856</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>945.274428736707</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>840.257096380384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>753.977053708567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>800.467641748477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>908.148303990778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>997.062285388055</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1103.87140591267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1192.3496164511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1228.79355099404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1274.72482167069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1029.0573643309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>836.880840583856</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1471.60475578325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1943.61303493193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>2065.5697059864</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1827.71654494767</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1560.30786610976</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1416.13706747059</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1361.77218179386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1061.01935860766</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>807.388752018633</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>673.888477919246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>601.943099716078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>611.434543197571</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>727.896421706577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>895.2458971526009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1080.24400034085</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1257.17842015733</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1389.8121068583</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1460.0219175798</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1478.24575268585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1533.55973226396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1280.80938080549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1080.69494275343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1558.93357494848</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>2028.23554224038</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>1934.90540439259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>1565.67781122488</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>1272.02145368269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>1219.58978347791</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>1125.23250889284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>1073.53331397184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>1040.78355473932</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>958.161268930013</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>829.8148282302089</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>730.56795760418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>778.367993397198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>921.7816477843151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>1083.11677535762</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>1244.32673999562</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>1384.68161357172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>1470.4517008084</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>1501.87234785665</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>1182.92042380724</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1042.03377761208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>1501.40172577363</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>1905.78879321543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>1830.51480274373</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>1548.17865354636</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>1359.21860280345</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>1297.75099540586</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>1147.56425610456</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>990.830190368421</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>809.7756738868831</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>649.103424089928</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>614.231431774528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>681.2331128352409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>770.5908772516919</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>849.041135953575</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>955.815945280032</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>1044.27700021939</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>1096.30269841535</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1111.92506520638</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>1115.62586704096</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>1033.73682384948</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>820.277530555729</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>1197.0786629561</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>1692.6138792936</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>2102.12104012949</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>2028.81922705311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>1688.77171448066</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>1396.06045816593</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>1328.24488923176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>1186.38431370772</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>1039.11142408975</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>947.100599555324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>872.348555698747</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>859.653392743568</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>966.317314828504</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>1133.96536221204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>1248.96545081679</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>1332.44631887868</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>1379.37968506703</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>1436.622362647</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>1586.68249859948</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>1796.63558990126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>1769.08987133559</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>1367.9155850488</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>1130.10204833039</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>1441.06700097048</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>1718.86935571074</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>1835.66712554953</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>1876.00484182171</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>1725.95707604499</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>1544.29579365724</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>1717.35452941521</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>1786.32048714201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>1443.27367105664</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>924.5143948399081</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>697.379958049826</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>903.366250514864</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>1185.62523349116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>1439.7685375379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>1611.73412121939</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>1522.28547459175</v>
       </c>
     </row>
   </sheetData>
